--- a/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_NCC_V2.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_NCC_V2.xlsx
@@ -129,9 +129,6 @@
     <t>Phường/Xã</t>
   </si>
   <si>
-    <t xml:space="preserve"> TPHCM</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Cô Giang</t>
   </si>
   <si>
@@ -139,12 +136,15 @@
   </si>
   <si>
     <t>38 Tôn Thất Tùng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TP Hồ Chí Mình</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,7 +518,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,16 +574,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>

--- a/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_NCC_V2.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_NCC_V2.xlsx
@@ -129,16 +129,16 @@
     <t>Phường/Xã</t>
   </si>
   <si>
-    <t xml:space="preserve"> TPHCM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cô Giang</t>
-  </si>
-  <si>
-    <t>quan 1</t>
-  </si>
-  <si>
     <t>38 Tôn Thất Tùng</t>
+  </si>
+  <si>
+    <t>Cô Giang</t>
+  </si>
+  <si>
+    <t>Quận 1</t>
+  </si>
+  <si>
+    <t>Hồ Chí Mình</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,13 +548,13 @@
         <v>11</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -574,16 +574,16 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>

--- a/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_NCC_V2.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_NCC_V2.xlsx
@@ -34,55 +34,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Thêm mới :</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Mã NCC sẽ tự sinh nếu để trống
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cập nhật :</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Mã NCC không để trống và không trùng lặp</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>SĐT</t>
   </si>
@@ -94,9 +51,6 @@
   </si>
   <si>
     <t>Tên NCC</t>
-  </si>
-  <si>
-    <t>Mã NCC</t>
   </si>
   <si>
     <t>Fax</t>
@@ -145,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,12 +122,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -515,63 +463,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="7" width="14.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="2" max="6" width="14.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -579,22 +526,19 @@
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_NCC_V2.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/Mau_File_NCC_V2.xlsx
@@ -34,55 +34,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Thêm mới :</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Mã NCC sẽ tự sinh nếu để trống
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cập nhật :</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Mã NCC không để trống và không trùng lặp</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>SĐT</t>
   </si>
@@ -94,9 +51,6 @@
   </si>
   <si>
     <t>Tên NCC</t>
-  </si>
-  <si>
-    <t>Mã NCC</t>
   </si>
   <si>
     <t>Fax</t>
@@ -145,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,12 +122,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -515,63 +463,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="7" width="14.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="2" max="6" width="14.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>15</v>
@@ -579,22 +526,19 @@
       <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
